--- a/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5A91B0-E164-CC49-93DD-94004B02C601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A738DFA9-7899-9B47-A561-5C694FB7C485}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19180" yWindow="620" windowWidth="16920" windowHeight="26280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2151,13 +2151,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D97" s="2">
         <v>61566725</v>
